--- a/metadata/all_nasal_user_info.xlsx
+++ b/metadata/all_nasal_user_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mireillefarjo/Documents/Grad/2022/SARS_data_complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978AE97E-3495-4C45-9913-93326BB0226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57AA698-468A-B84B-98B9-BDC483B749D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="560" windowWidth="13040" windowHeight="16080" xr2:uid="{D3674C88-0FB4-124F-BEC5-F43E864F43B1}"/>
+    <workbookView xWindow="8640" yWindow="460" windowWidth="20160" windowHeight="16080" xr2:uid="{D3674C88-0FB4-124F-BEC5-F43E864F43B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
-  <si>
-    <t>47567044297</t>
-  </si>
-  <si>
-    <t>47567041220201</t>
-  </si>
-  <si>
-    <t>47567044299</t>
-  </si>
-  <si>
-    <t>47567044300</t>
-  </si>
-  <si>
-    <t>47567044301</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>45024144222</t>
   </si>
@@ -146,9 +131,6 @@
     <t>43857744206</t>
   </si>
   <si>
-    <t>43857744207</t>
-  </si>
-  <si>
     <t>43857744208</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>immune</t>
   </si>
   <si>
     <t>unvaccinated</t>
@@ -280,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,14 +285,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -646,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DA32F6-87DE-8549-A64B-2B0F3B0879D2}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,1351 +632,1235 @@
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>475670</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44297</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
+      <c r="A2" s="4">
+        <v>432686</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44172</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6">
-        <v>24.75</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>475670</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44298</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="4">
+        <v>432686</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44173</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
         <v>16.670000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>475670</v>
+        <v>432686</v>
       </c>
       <c r="B4" s="2">
-        <v>44299</v>
+        <v>44174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>15.83</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>27.09</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>475670</v>
-      </c>
-      <c r="B5" s="5">
-        <v>44300</v>
+      <c r="A5" s="1">
+        <v>433227</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44179</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
-        <v>17.39</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>19.23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>475670</v>
+        <v>433227</v>
       </c>
       <c r="B6" s="2">
-        <v>44301</v>
+        <v>44180</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
-        <v>21.46</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>15.29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>450241</v>
-      </c>
-      <c r="B7" s="5">
-        <v>44222</v>
+      <c r="A7" s="1">
+        <v>433227</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44181</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="6">
-        <v>22.56</v>
+      <c r="F7" s="7">
+        <v>18.73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>450241</v>
+        <v>433227</v>
       </c>
       <c r="B8" s="2">
-        <v>44224</v>
+        <v>44182</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>21.23</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>18.57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>451152</v>
+        <v>433227</v>
       </c>
       <c r="B9" s="2">
-        <v>44225</v>
+        <v>44185</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>17.05</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>25.71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>451152</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44226</v>
+      <c r="A10" s="1">
+        <v>438577</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44205</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>438577</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44206</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>438577</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44208</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>451152</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44227</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>17.690000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>471467</v>
-      </c>
-      <c r="B12" s="5">
-        <v>44282</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>25.33</v>
+      <c r="F12" s="7">
+        <v>19.11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>471467</v>
+        <v>438577</v>
       </c>
       <c r="B13" s="2">
-        <v>44283</v>
+        <v>44209</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>15.33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>471467</v>
+        <v>438577</v>
       </c>
       <c r="B14" s="2">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>16.579999999999998</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>23.33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>471467</v>
+        <v>442978</v>
       </c>
       <c r="B15" s="2">
-        <v>44285</v>
+        <v>44210</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" s="6">
-        <v>23.07</v>
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>21.66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>471588</v>
+        <v>442978</v>
       </c>
       <c r="B16" s="2">
-        <v>44281</v>
+        <v>44211</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>17.53</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>25.05</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>471588</v>
+        <v>442978</v>
       </c>
       <c r="B17" s="2">
-        <v>44282</v>
+        <v>44212</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>16.97</v>
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>25.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>471588</v>
+        <v>442978</v>
       </c>
       <c r="B18" s="2">
-        <v>44283</v>
+        <v>44213</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6">
-        <v>21.97</v>
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>23.98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>471588</v>
-      </c>
-      <c r="B19" s="5">
-        <v>44284</v>
+      <c r="A19" s="1">
+        <v>442978</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44214</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>26.82</v>
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>25.69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>451709</v>
-      </c>
-      <c r="B20" s="5">
-        <v>44232</v>
+      <c r="A20" s="1">
+        <v>444332</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44212</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6">
-        <v>20.09</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>16.29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>451709</v>
+        <v>444332</v>
       </c>
       <c r="B21" s="2">
-        <v>44233</v>
+        <v>44213</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6">
-        <v>24.03</v>
+        <v>4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>17.39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>451709</v>
+        <v>444332</v>
       </c>
       <c r="B22" s="2">
-        <v>44234</v>
+        <v>44214</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>444332</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44215</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="F22" s="6">
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>451709</v>
-      </c>
-      <c r="B23" s="5">
-        <v>44235</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23">
+      <c r="F23" s="7">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>444332</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
         <v>7</v>
       </c>
-      <c r="F23" s="6">
-        <v>26.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>451709</v>
-      </c>
-      <c r="B24" s="5">
-        <v>44236</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6">
-        <v>25.27</v>
+      <c r="F24" s="7">
+        <v>21.08</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>453058</v>
+        <v>444332</v>
       </c>
       <c r="B25" s="2">
-        <v>44233</v>
+        <v>44217</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>13.45</v>
+        <v>8</v>
+      </c>
+      <c r="F25" s="7">
+        <v>24.81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>453058</v>
+        <v>444332</v>
       </c>
       <c r="B26" s="5">
-        <v>44235</v>
+        <v>44218</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6">
-        <v>19.87</v>
+        <v>9</v>
+      </c>
+      <c r="F26" s="7">
+        <v>23.46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>453058</v>
+        <v>444332</v>
       </c>
       <c r="B27" s="2">
-        <v>44236</v>
+        <v>44219</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6">
-        <v>21.47</v>
+        <v>10</v>
+      </c>
+      <c r="F27" s="7">
+        <v>17.579999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>453058</v>
+        <v>444332</v>
       </c>
       <c r="B28" s="2">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6">
-        <v>23.06</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="7">
+        <v>26.29</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>453058</v>
+        <v>444633</v>
       </c>
       <c r="B29" s="2">
-        <v>44239</v>
+        <v>44210</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6">
-        <v>24.42</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>23.35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B30" s="5">
-        <v>44250</v>
+      <c r="A30" s="1">
+        <v>444633</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44211</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6">
-        <v>27.31</v>
+        <v>2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>16.440000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B31" s="5">
-        <v>44251</v>
+      <c r="A31" s="1">
+        <v>444633</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44213</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="6">
-        <v>24.85</v>
+      <c r="F31" s="7">
+        <v>15.17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B32" s="5">
-        <v>44252</v>
+      <c r="A32" s="1">
+        <v>444633</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="6">
-        <v>20.350000000000001</v>
+      <c r="F32" s="7">
+        <v>16.29</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B33" s="5">
-        <v>44253</v>
+      <c r="A33" s="1">
+        <v>444633</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44215</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33" s="6">
-        <v>20.05</v>
+      <c r="F33" s="7">
+        <v>24.16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>459597</v>
-      </c>
-      <c r="B34" s="2">
-        <v>44254</v>
+      <c r="A34" s="4">
+        <v>450241</v>
+      </c>
+      <c r="B34" s="5">
+        <v>44222</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="F34" s="7">
+        <v>22.56</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>432686</v>
-      </c>
-      <c r="B35" s="5">
-        <v>44172</v>
-      </c>
-      <c r="C35">
+      <c r="A35" s="1">
+        <v>450241</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44224</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>19.329999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="F35" s="7">
+        <v>21.23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>432686</v>
-      </c>
-      <c r="B36" s="5">
-        <v>44173</v>
-      </c>
-      <c r="C36">
+      <c r="A36" s="1">
+        <v>451152</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44225</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="6">
-        <v>16.670000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="F36" s="7">
+        <v>17.05</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>432686</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44174</v>
+      <c r="A37" s="4">
+        <v>451152</v>
+      </c>
+      <c r="B37" s="5">
+        <v>44226</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6">
-        <v>27.09</v>
+        <v>4</v>
+      </c>
+      <c r="F37" s="7">
+        <v>18.18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>438577</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44205</v>
+      <c r="A38" s="4">
+        <v>451152</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44227</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>451709</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44232</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
         <v>20.09</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>438577</v>
-      </c>
-      <c r="B39" s="2">
-        <v>44206</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6">
-        <v>17.36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>438577</v>
+        <v>451709</v>
       </c>
       <c r="B40" s="2">
-        <v>44207</v>
+        <v>44233</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="6">
-        <v>15.91</v>
+        <v>5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>24.03</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>438577</v>
+        <v>451709</v>
       </c>
       <c r="B41" s="2">
-        <v>44208</v>
+        <v>44234</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" s="6">
-        <v>19.11</v>
+        <v>6</v>
+      </c>
+      <c r="F41" s="7">
+        <v>22.53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>438577</v>
-      </c>
-      <c r="B42" s="2">
-        <v>44209</v>
+      <c r="A42" s="4">
+        <v>451709</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44235</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42" s="6">
-        <v>15.33</v>
+        <v>7</v>
+      </c>
+      <c r="F42" s="7">
+        <v>26.32</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>438577</v>
-      </c>
-      <c r="B43" s="2">
-        <v>44211</v>
+      <c r="A43" s="4">
+        <v>451709</v>
+      </c>
+      <c r="B43" s="5">
+        <v>44236</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6">
-        <v>23.33</v>
+        <v>8</v>
+      </c>
+      <c r="F43" s="7">
+        <v>25.27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>444633</v>
+        <v>453058</v>
       </c>
       <c r="B44" s="2">
-        <v>44210</v>
+        <v>44233</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="6">
-        <v>23.35</v>
+      <c r="F44" s="7">
+        <v>13.45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>444633</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44211</v>
+      <c r="A45" s="4">
+        <v>453058</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44235</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" s="6">
-        <v>16.440000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="F45" s="7">
+        <v>19.87</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>444633</v>
+        <v>453058</v>
       </c>
       <c r="B46" s="2">
-        <v>44213</v>
+        <v>44236</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46" s="6">
-        <v>15.17</v>
+      <c r="F46" s="7">
+        <v>21.47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>444633</v>
+        <v>453058</v>
       </c>
       <c r="B47" s="2">
-        <v>44214</v>
+        <v>44237</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
-      <c r="F47" s="6">
-        <v>16.29</v>
+      <c r="F47" s="7">
+        <v>23.06</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>444633</v>
+        <v>453058</v>
       </c>
       <c r="B48" s="2">
-        <v>44215</v>
+        <v>44239</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" s="7">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>459597</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44250</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="7">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>459597</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44251</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" s="7">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>459597</v>
+      </c>
+      <c r="B51" s="5">
+        <v>44252</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" s="7">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>459597</v>
+      </c>
+      <c r="B52" s="5">
+        <v>44253</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52">
         <v>6</v>
       </c>
-      <c r="F48" s="6">
-        <v>24.16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>433277</v>
-      </c>
-      <c r="B49" s="2">
-        <v>44179</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49" s="6">
-        <v>19.23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>433227</v>
-      </c>
-      <c r="B50" s="2">
-        <v>44180</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
-      <c r="F50" s="6">
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>433227</v>
-      </c>
-      <c r="B51" s="2">
-        <v>44181</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51" s="6">
-        <v>18.73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>433227</v>
-      </c>
-      <c r="B52" s="2">
-        <v>44182</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52">
-        <v>7</v>
-      </c>
-      <c r="F52" s="6">
-        <v>18.57</v>
+      <c r="F52" s="7">
+        <v>20.05</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>433227</v>
+        <v>459597</v>
       </c>
       <c r="B53" s="2">
-        <v>44185</v>
+        <v>44254</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="F53" s="6">
-        <v>25.71</v>
+        <v>7</v>
+      </c>
+      <c r="F53" s="7">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>444332</v>
-      </c>
-      <c r="B54" s="2">
-        <v>44212</v>
+      <c r="A54" s="4">
+        <v>471467</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44282</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54" s="6">
-        <v>16.29</v>
+      <c r="F54" s="7">
+        <v>25.33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>444332</v>
+        <v>471467</v>
       </c>
       <c r="B55" s="2">
-        <v>44213</v>
+        <v>44283</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55" s="6">
-        <v>17.39</v>
+      <c r="F55" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>444332</v>
+        <v>471467</v>
       </c>
       <c r="B56" s="2">
-        <v>44214</v>
+        <v>44284</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
-      <c r="F56" s="6">
-        <v>18.100000000000001</v>
+      <c r="F56" s="7">
+        <v>16.579999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>444332</v>
+        <v>471467</v>
       </c>
       <c r="B57" s="2">
-        <v>44215</v>
+        <v>44285</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57" s="6">
-        <v>22.94</v>
+      <c r="F57" s="7">
+        <v>23.07</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>444332</v>
+        <v>471588</v>
       </c>
       <c r="B58" s="2">
-        <v>44216</v>
+        <v>44281</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E58">
-        <v>7</v>
-      </c>
-      <c r="F58" s="6">
-        <v>21.08</v>
+        <v>2</v>
+      </c>
+      <c r="F58" s="7">
+        <v>17.53</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>444332</v>
+        <v>471588</v>
       </c>
       <c r="B59" s="2">
-        <v>44217</v>
+        <v>44282</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E59">
-        <v>8</v>
-      </c>
-      <c r="F59" s="6">
-        <v>24.81</v>
+        <v>3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>16.97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>444332</v>
-      </c>
-      <c r="B60" s="5">
-        <v>44218</v>
+      <c r="A60" s="1">
+        <v>471588</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44283</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E60">
-        <v>9</v>
-      </c>
-      <c r="F60" s="6">
-        <v>23.46</v>
+        <v>4</v>
+      </c>
+      <c r="F60" s="7">
+        <v>21.97</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>444332</v>
-      </c>
-      <c r="B61" s="2">
-        <v>44219</v>
+      <c r="A61" s="4">
+        <v>471588</v>
+      </c>
+      <c r="B61" s="5">
+        <v>44284</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61" s="6">
-        <v>17.579999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>444332</v>
-      </c>
-      <c r="B62" s="2">
-        <v>44222</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62">
-        <v>13</v>
-      </c>
-      <c r="F62" s="6">
-        <v>26.29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>442978</v>
-      </c>
-      <c r="B63" s="2">
-        <v>44210</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="6">
-        <v>21.66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>442978</v>
-      </c>
-      <c r="B64" s="2">
-        <v>44211</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64" s="6">
-        <v>25.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>442978</v>
-      </c>
-      <c r="B65" s="2">
-        <v>44212</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65" s="6">
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>442978</v>
-      </c>
-      <c r="B66" s="2">
-        <v>44213</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66">
         <v>5</v>
       </c>
-      <c r="F66" s="6">
-        <v>23.98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>442978</v>
-      </c>
-      <c r="B67" s="2">
-        <v>44214</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67" s="6">
-        <v>25.69</v>
+      <c r="F61" s="7">
+        <v>26.82</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C67">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+    <sortCondition ref="A2:A66"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C61">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
